--- a/src/test/resources/testData/UsersData.xlsx
+++ b/src/test/resources/testData/UsersData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Aug2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Aug2020\workspace\Selenium4_Maven\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D3A4D-B485-4F1A-AA03-DB4CC05D8CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2F856B-5B57-4543-A12A-38723011BC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{273D4439-2E53-4665-8CEA-2CA32D3CE038}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -47,26 +47,16 @@
     <t>test1234</t>
   </si>
   <si>
-    <t>test11</t>
-  </si>
-  <si>
     <t>test2@gmail.com</t>
   </si>
   <si>
-    <t>user@phptravels.com</t>
-  </si>
-  <si>
-    <t>demouser</t>
-  </si>
-  <si>
-    <t>Result</t>
+    <t>test12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54461912-EBD0-401B-8452-96556EE42CC1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,41 +436,19 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D5AFB571-D602-4885-96E6-F901A022A7C5}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{31F65227-F4A4-4ADE-9A3E-B09D90C2B437}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{31F65227-F4A4-4ADE-9A3E-B09D90C2B437}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
